--- a/predictions_summary_3outputs.xlsx
+++ b/predictions_summary_3outputs.xlsx
@@ -501,19 +501,19 @@
         <v>290</v>
       </c>
       <c r="E2" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="F2" t="n">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="G2" t="n">
-        <v>2.99</v>
+        <v>3.13</v>
       </c>
       <c r="H2" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008433</v>
+        <v>0.008532</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -537,19 +537,19 @@
         <v>290</v>
       </c>
       <c r="E3" t="n">
-        <v>4.22</v>
+        <v>4.59</v>
       </c>
       <c r="F3" t="n">
-        <v>4.21</v>
+        <v>4.58</v>
       </c>
       <c r="G3" t="n">
-        <v>7.14</v>
+        <v>6.56</v>
       </c>
       <c r="H3" t="n">
-        <v>5.19</v>
+        <v>5.24</v>
       </c>
       <c r="I3" t="n">
-        <v>0.016541</v>
+        <v>0.016663</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -573,19 +573,19 @@
         <v>290</v>
       </c>
       <c r="E4" t="n">
-        <v>15.78</v>
+        <v>15.06</v>
       </c>
       <c r="F4" t="n">
-        <v>15.99</v>
+        <v>13.93</v>
       </c>
       <c r="G4" t="n">
-        <v>17.57</v>
+        <v>17.24</v>
       </c>
       <c r="H4" t="n">
-        <v>16.45</v>
+        <v>15.41</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04958</v>
+        <v>0.044175</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -609,19 +609,19 @@
         <v>290</v>
       </c>
       <c r="E5" t="n">
-        <v>3.94</v>
+        <v>3.62</v>
       </c>
       <c r="F5" t="n">
-        <v>3.44</v>
+        <v>3.41</v>
       </c>
       <c r="G5" t="n">
-        <v>2.69</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.36</v>
+        <v>3.24</v>
       </c>
       <c r="I5" t="n">
-        <v>0.011059</v>
+        <v>0.010594</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -645,19 +645,19 @@
         <v>169</v>
       </c>
       <c r="E6" t="n">
-        <v>10.41</v>
+        <v>11.41</v>
       </c>
       <c r="F6" t="n">
-        <v>11.58</v>
+        <v>11.87</v>
       </c>
       <c r="G6" t="n">
-        <v>7.41</v>
+        <v>7.7</v>
       </c>
       <c r="H6" t="n">
-        <v>9.800000000000001</v>
+        <v>10.33</v>
       </c>
       <c r="I6" t="n">
-        <v>0.024065</v>
+        <v>0.025129</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -681,19 +681,19 @@
         <v>289</v>
       </c>
       <c r="E7" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="F7" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="G7" t="n">
         <v>2.09</v>
       </c>
       <c r="H7" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="I7" t="n">
-        <v>0.004453</v>
+        <v>0.004346</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>

--- a/predictions_summary_3outputs.xlsx
+++ b/predictions_summary_3outputs.xlsx
@@ -501,19 +501,19 @@
         <v>290</v>
       </c>
       <c r="E2" t="n">
-        <v>2.88</v>
+        <v>3.06</v>
       </c>
       <c r="F2" t="n">
-        <v>2.45</v>
+        <v>2.56</v>
       </c>
       <c r="G2" t="n">
-        <v>3.13</v>
+        <v>3.15</v>
       </c>
       <c r="H2" t="n">
-        <v>2.82</v>
+        <v>2.93</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008532</v>
+        <v>0.008871</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -537,19 +537,19 @@
         <v>290</v>
       </c>
       <c r="E3" t="n">
-        <v>4.59</v>
+        <v>4.8</v>
       </c>
       <c r="F3" t="n">
-        <v>4.58</v>
+        <v>4.83</v>
       </c>
       <c r="G3" t="n">
-        <v>6.56</v>
+        <v>7.84</v>
       </c>
       <c r="H3" t="n">
-        <v>5.24</v>
+        <v>5.82</v>
       </c>
       <c r="I3" t="n">
-        <v>0.016663</v>
+        <v>0.018583</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -573,19 +573,19 @@
         <v>290</v>
       </c>
       <c r="E4" t="n">
-        <v>15.06</v>
+        <v>16.7</v>
       </c>
       <c r="F4" t="n">
-        <v>13.93</v>
+        <v>18.42</v>
       </c>
       <c r="G4" t="n">
-        <v>17.24</v>
+        <v>17.86</v>
       </c>
       <c r="H4" t="n">
-        <v>15.41</v>
+        <v>17.66</v>
       </c>
       <c r="I4" t="n">
-        <v>0.044175</v>
+        <v>0.054143</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -609,19 +609,19 @@
         <v>290</v>
       </c>
       <c r="E5" t="n">
-        <v>3.62</v>
+        <v>4.04</v>
       </c>
       <c r="F5" t="n">
-        <v>3.41</v>
+        <v>3.77</v>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.97</v>
       </c>
       <c r="H5" t="n">
-        <v>3.24</v>
+        <v>3.59</v>
       </c>
       <c r="I5" t="n">
-        <v>0.010594</v>
+        <v>0.011793</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -645,19 +645,19 @@
         <v>169</v>
       </c>
       <c r="E6" t="n">
-        <v>11.41</v>
+        <v>13.43</v>
       </c>
       <c r="F6" t="n">
-        <v>11.87</v>
+        <v>13.4</v>
       </c>
       <c r="G6" t="n">
-        <v>7.7</v>
+        <v>9.07</v>
       </c>
       <c r="H6" t="n">
-        <v>10.33</v>
+        <v>11.97</v>
       </c>
       <c r="I6" t="n">
-        <v>0.025129</v>
+        <v>0.029154</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -681,19 +681,19 @@
         <v>289</v>
       </c>
       <c r="E7" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="F7" t="n">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="G7" t="n">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="H7" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="I7" t="n">
-        <v>0.004346</v>
+        <v>0.004197</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
